--- a/biology/Écologie/Hawaï_(phytorégion)/Hawaï_(phytorégion).xlsx
+++ b/biology/Écologie/Hawaï_(phytorégion)/Hawaï_(phytorégion).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hawa%C3%AF_(phytor%C3%A9gion)</t>
+          <t>Hawaï_(phytorégion)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hawaï fait partie de l’écozone Océanien et comprend quatre principales écorégions terrestres réparties sur trois biomes différents. Les quatre écorégions sont : les forêts humides tropicales d’Hawaï, les forêts sèches tropicales d’Hawaï et les brousses tropicales élevées d’Hawaï et les brousses tropicales basses d’Hawaï. Les deux premières appartiennent respectivement aux deux biomes suivants : les forêts de feuillus humides tropicales et subtropicales et les forêts de feuillus sèches tropicales et subtropicales. Les deux dernières écorégions appartiennent toutes les deux au biome des prairies, savanes et brousses tropicales et subtropicales. 
 Cet article concerne la flore présente sur l’archipel d’Hawaï, et plus particulièrement les espèces qui y sont endémiques.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hawa%C3%AF_(phytor%C3%A9gion)</t>
+          <t>Hawaï_(phytorégion)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Introduction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’archipel d’Hawaï se situe au centre de l’océan pacifique nord. Avec une superficie de 16 946 km2 (sans compter les 11 672 km2 d’eau), Hawaï est composé de huit îles au total dont quatre principales : Hawaii, Maui, Oahu, Kauai et quatre plus petites : Kahoolawe, Lanai, Molokai, Niihau. L’île d’Hawaii à elle seule comprend les deux-tiers de la superficie terrestre totale. Malgré cela, c’est l’île d’Oahu, vaste de seulement 1 680 km2, qui est la plus peuplée.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hawa%C3%AF_(phytor%C3%A9gion)</t>
+          <t>Hawaï_(phytorégion)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hawaï est composée d’îles volcaniques alignées de la plus ancienne à la plus récente, respectivement Nihau et Hawaii. Les îles ont été créées à partir d’un point chaud situé dans la croûte océanique. L’ordre dans lequel les îles sont apparues et dû aux mouvements des plaques tectoniques. L’île d’Hawaii, dernière en date, est la seule qui contienne encore des volcans actifs. Elle abrite aussi le plus haut sommet, le Mauna Kea, qui se dresse à 4 210 mètres.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hawa%C3%AF_(phytor%C3%A9gion)</t>
+          <t>Hawaï_(phytorégion)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Climat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec seulement deux saisons, le climat tropical et subtropical est le même pour toutes les îles. On observe toutefois de forts changements au niveau des précipitations qui peuvent varier de très humide (&gt; 1 000 cm/an) à très sec (&lt; 25 cm/an) et cela à moins de 40 kilomètres de distance. Cela est notamment dû aux changements abrupts d’altitude amenés par les montagnes présentes sur la plupart des îles. Le vent constitue un autre facteur climatique important. Avec l’alizé du Nord-Est qui souffle de mars à novembre, puis vient ensuite le vent du Sud pendant la saison froide.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hawa%C3%AF_(phytor%C3%A9gion)</t>
+          <t>Hawaï_(phytorégion)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,11 +623,48 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les écorégions présentes sur le territoire d’Hawaï se sont développées relativement isolées du reste du monde durant les dernières 28 millions d’années, ce qui a conduit à un taux d’endémisme élevé aussi bien au niveau de la faune que de la flore.
-Forêts humides tropicales et subtropicales
-Ces forêts comprennent des zones de forêts mésiques mixtes (entre 750 et 1 250 mètres), de forêts humides (1 250 à 1 750 mètres), des prairies arbustives humides et des tourbières dans les endroits marécageux. On retrouve ce type de région sur toutes les îles excepté Nihau et Kahoolawe. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les écorégions présentes sur le territoire d’Hawaï se sont développées relativement isolées du reste du monde durant les dernières 28 millions d’années, ce qui a conduit à un taux d’endémisme élevé aussi bien au niveau de la faune que de la flore.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hawaï_(phytorégion)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hawa%C3%AF_(phytor%C3%A9gion)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Forêts humides tropicales et subtropicales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ces forêts comprennent des zones de forêts mésiques mixtes (entre 750 et 1 250 mètres), de forêts humides (1 250 à 1 750 mètres), des prairies arbustives humides et des tourbières dans les endroits marécageux. On retrouve ce type de région sur toutes les îles excepté Nihau et Kahoolawe. 
 Plantes endémiques à cette écorégion
 Hibiscus arnottianus subsp. immaculatus, Malvaceae
 Bobea elatior, Rubiaceae
@@ -623,9 +678,43 @@
 Cyanea angustifolia, Campanulaceae
 Sadleria cyatheoides, Blechnaceae
 Neraudia angulata, Urticaceae
-Touchardia latifolia, Urticaceae
-Forêts sèches tropicales et subtropicales
-Ces forêts sont typiques des régions à l’abri du vent côtier sur l’île principale et, une fois couvertes, les régions au sommet des plus petites îles. La plupart de ces forêts sont saisonnières ou sclérophylles, mais une transition vers des forêts mésiques est possible lorsque les conditions sont favorables. La saison sèche prononcée pour ce type de forêts dure d’avril à octobre avec des précipitations variant entre 25 et 125 centimètres par an. On trouve ce type de région sur toutes les îles de l’archipel.
+Touchardia latifolia, Urticaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hawaï_(phytorégion)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hawa%C3%AF_(phytor%C3%A9gion)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Forêts sèches tropicales et subtropicales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ces forêts sont typiques des régions à l’abri du vent côtier sur l’île principale et, une fois couvertes, les régions au sommet des plus petites îles. La plupart de ces forêts sont saisonnières ou sclérophylles, mais une transition vers des forêts mésiques est possible lorsque les conditions sont favorables. La saison sèche prononcée pour ce type de forêts dure d’avril à octobre avec des précipitations variant entre 25 et 125 centimètres par an. On trouve ce type de région sur toutes les îles de l’archipel.
 Acacia koaia, Fabaceae
 Mezoneuron kavaiense, Fabaceae
 Gardenia brighamii, Rubiaceae
@@ -641,9 +730,43 @@
 Kokia drynarioides, Malvaceae
 Nothocestrum latifolium, Solanaceae
 Bidens asymmetrica, Asteraceae
-Polyscias racemosa, Araliaceae
-Brousses tropicales élevées d’Hawaï
-Cette région contient de vastes brousses, des prairies alpines et des déserts. On trouve les brousses sur le haut des versants de grands volcans comme le Mauna kea, Mauna loa, Hualalai ou le Haleakala. Les déserts se situent en général sur les sommets où les conditions froides et sèches y sont favorables. On trouve cette écorégion uniquement sur les îles de Maui et Hawaii.
+Polyscias racemosa, Araliaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hawaï_(phytorégion)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hawa%C3%AF_(phytor%C3%A9gion)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Brousses tropicales élevées d’Hawaï</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cette région contient de vastes brousses, des prairies alpines et des déserts. On trouve les brousses sur le haut des versants de grands volcans comme le Mauna kea, Mauna loa, Hualalai ou le Haleakala. Les déserts se situent en général sur les sommets où les conditions froides et sèches y sont favorables. On trouve cette écorégion uniquement sur les îles de Maui et Hawaii.
 Argyroxiphium sandwicense subsp. sandwicense, Asteraceae
 Argyroxiphium sandwicense subsp. Macrocephalum, Asteraceae
 Euphorbia deppeana, Euphorbiaceae
@@ -655,9 +778,43 @@
 Deschampsia nubigena, Poaceae
 Eragrostis atropioides, Poaceae
 Panicum tenuifolium, Poaceae
-Trisetum glomeratum, Poaceae
-Brousses tropicales basses d’Hawaï
-Cette écorégion présente sur toutes les îles se situe sur les régions côtières et monte jusqu’en plaines. On peut y trouver des atolls et de petits vestiges de basalte. On n’y trouve presque pas d’arbres, mais ce sont tout de même des régions très riches avec un taux d’endémisme très élevé qui peut dépasser les 90 %.
+Trisetum glomeratum, Poaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hawaï_(phytorégion)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hawa%C3%AF_(phytor%C3%A9gion)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Brousses tropicales basses d’Hawaï</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Cette écorégion présente sur toutes les îles se situe sur les régions côtières et monte jusqu’en plaines. On peut y trouver des atolls et de petits vestiges de basalte. On n’y trouve presque pas d’arbres, mais ce sont tout de même des régions très riches avec un taux d’endémisme très élevé qui peut dépasser les 90 %.
 Sesbania tomentosa, Fabaceae
 Scaevola coriacea, Goodeniaceae
 Brighamia insignis, Campanulaceae
@@ -678,31 +835,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hawa%C3%AF_(phytor%C3%A9gion)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hawa%C3%AF_(phytor%C3%A9gion)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hawaï_(phytorégion)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hawa%C3%AF_(phytor%C3%A9gion)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe aujourd’hui environ 1 400 taxons de plantes vasculaires sur les îles d’Hawaï, dont près de 90 % qui sont endémiques. Certains parlent de Hawaï comme la « capitale du monde pour espèces menacées ». En effet, on compte à ce jour 365 taxons de plantes qui sont listées comme en danger ou menacées dont 7 qui sont déjà vraisemblablement éteints. À cela on peut rajouter 248 taxons qui sont non-officiellement suivis comme « espèces à risque » et pourraient mériter leur place dans la liste d’espèces en danger ou menacées.
 </t>
